--- a/output/5Y_P21_KFSDIV.xlsx
+++ b/output/5Y_P21_KFSDIV.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="31">
   <si>
     <t>NAV</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Dividend</t>
+  </si>
+  <si>
+    <t>Wealth/Cost</t>
   </si>
 </sst>
 </file>
@@ -1249,7 +1252,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-29</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>13.8109</v>
@@ -1293,7 +1296,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-28</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>13.9322</v>
@@ -1343,7 +1346,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-27</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>12.5846</v>
@@ -1393,7 +1396,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-26</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>12.2867</v>
@@ -1443,7 +1446,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-25</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>13.0645</v>
@@ -1493,7 +1496,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-24</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>13.8083</v>
@@ -1543,7 +1546,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-23</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>13.5636</v>
@@ -1593,7 +1596,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-22</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>13.1788</v>
@@ -1643,7 +1646,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-21</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>14.5668</v>
@@ -1693,7 +1696,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-20</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>13.962</v>
@@ -1743,7 +1746,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-19</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>12.2659</v>
@@ -1793,7 +1796,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-18</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>12.4103</v>
@@ -1843,7 +1846,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-17</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>12.3976</v>
@@ -1893,7 +1896,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-16</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>12.9013</v>
@@ -1943,7 +1946,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>13.3527</v>
@@ -1993,7 +1996,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-14</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>13.8804</v>
@@ -2043,7 +2046,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-13</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>14.6268</v>
@@ -2093,7 +2096,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-12</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>15.3636</v>
@@ -2143,7 +2146,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>-11</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>13.8711</v>
@@ -2193,7 +2196,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>-10</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>14.1252</v>
@@ -2243,7 +2246,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>-9</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>14.1934</v>
@@ -2293,7 +2296,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>-8</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>14.1176</v>
@@ -2343,7 +2346,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>-7</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>15.3311</v>
@@ -2393,7 +2396,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>-6</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>15.3637</v>
@@ -2443,7 +2446,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>-5</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>14.6447</v>
@@ -2493,7 +2496,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>-4</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>15.486</v>
@@ -2543,7 +2546,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>-3</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>16.1958</v>
@@ -2593,7 +2596,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>-2</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>16.4264</v>
@@ -2643,7 +2646,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>-1</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>17.107</v>
@@ -2693,7 +2696,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>16.8894</v>
@@ -2743,7 +2746,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>16.4004</v>
@@ -2793,7 +2796,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>15.3877</v>
@@ -2843,7 +2846,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>14.6367</v>
@@ -2893,7 +2896,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>13.0061</v>
@@ -2943,7 +2946,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>13.835</v>
@@ -2993,7 +2996,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>14.4216</v>
@@ -3043,7 +3046,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>13.2404</v>
@@ -3093,7 +3096,7 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="2">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>12.382</v>
@@ -3143,7 +3146,7 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="2">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>11.9583</v>
@@ -3193,7 +3196,7 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="2">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>12.2036</v>
@@ -3243,7 +3246,7 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="2">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>12.9136</v>
@@ -3293,7 +3296,7 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="2">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1">
         <v>13.4338</v>
@@ -3343,7 +3346,7 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="2">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1">
         <v>12.9657</v>
@@ -3393,7 +3396,7 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="2">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1">
         <v>13.3568</v>
@@ -3443,7 +3446,7 @@
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="2">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1">
         <v>13.2487</v>
@@ -3493,7 +3496,7 @@
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="2">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1">
         <v>13.3991</v>
@@ -3543,7 +3546,7 @@
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="2">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1">
         <v>13.5985</v>
@@ -3593,7 +3596,7 @@
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="2">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1">
         <v>13.6955</v>
@@ -3643,7 +3646,7 @@
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="2">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="B50" s="1">
         <v>13.3398</v>
@@ -3693,7 +3696,7 @@
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="2">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1">
         <v>12.8469</v>
@@ -3743,7 +3746,7 @@
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="2">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1">
         <v>13.129</v>
@@ -3793,7 +3796,7 @@
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="2">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="B53" s="1">
         <v>12.716</v>
@@ -3843,7 +3846,7 @@
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="2">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1">
         <v>12.4613</v>
@@ -3893,7 +3896,7 @@
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="2">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1">
         <v>12.6545</v>
@@ -3943,7 +3946,7 @@
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="2">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="B56" s="1">
         <v>12.2345</v>
@@ -3993,7 +3996,7 @@
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="2">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1">
         <v>12.1636</v>
@@ -4043,7 +4046,7 @@
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="2">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1">
         <v>11.8145</v>
@@ -4093,7 +4096,7 @@
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="2">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1">
         <v>11.2352</v>
@@ -4143,7 +4146,7 @@
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="2">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="B60" s="1">
         <v>10.8241</v>
@@ -4193,7 +4196,7 @@
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="2">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="B61" s="1">
         <v>11.2543</v>
@@ -4243,7 +4246,7 @@
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="2">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1">
         <v>10.5675</v>
@@ -4378,7 +4381,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-29</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>13.8109</v>
@@ -4425,7 +4428,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-28</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>13.9322</v>
@@ -4478,7 +4481,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-27</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>12.5846</v>
@@ -4531,7 +4534,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-26</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>12.2867</v>
@@ -4584,7 +4587,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-25</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>13.0645</v>
@@ -4637,7 +4640,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-24</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>13.8083</v>
@@ -4690,7 +4693,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-23</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>13.5636</v>
@@ -4743,7 +4746,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-22</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>13.1788</v>
@@ -4796,7 +4799,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-21</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>14.5668</v>
@@ -4849,7 +4852,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-20</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>13.962</v>
@@ -4902,7 +4905,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-19</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>12.2659</v>
@@ -4955,7 +4958,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-18</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>12.4103</v>
@@ -5008,7 +5011,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-17</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>12.3976</v>
@@ -5061,7 +5064,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-16</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>12.9013</v>
@@ -5114,7 +5117,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>13.3527</v>
@@ -5167,7 +5170,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-14</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>13.8804</v>
@@ -5220,7 +5223,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-13</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>14.6268</v>
@@ -5273,7 +5276,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-12</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>15.3636</v>
@@ -5326,7 +5329,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>-11</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>13.8711</v>
@@ -5379,7 +5382,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>-10</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>14.1252</v>
@@ -5432,7 +5435,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>-9</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>14.1934</v>
@@ -5485,7 +5488,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>-8</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>14.1176</v>
@@ -5538,7 +5541,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>-7</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>15.3311</v>
@@ -5591,7 +5594,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>-6</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>15.3637</v>
@@ -5621,10 +5624,10 @@
         <v>288038.17</v>
       </c>
       <c r="K25" s="1">
-        <v>199497.9137</v>
+        <v>199533.6662</v>
       </c>
       <c r="L25" s="1">
-        <v>13.2713</v>
+        <v>13.2737</v>
       </c>
       <c r="M25" s="1">
         <v>0</v>
@@ -5644,7 +5647,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>-5</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>14.6447</v>
@@ -5674,10 +5677,10 @@
         <v>286767.7818</v>
       </c>
       <c r="K26" s="1">
-        <v>209046.0051</v>
+        <v>209081.7577</v>
       </c>
       <c r="L26" s="1">
-        <v>13.3554</v>
+        <v>13.3577</v>
       </c>
       <c r="M26" s="1">
         <v>1</v>
@@ -5697,7 +5700,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>-4</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>15.486</v>
@@ -5727,10 +5730,10 @@
         <v>325131.4784</v>
       </c>
       <c r="K27" s="1">
-        <v>230363.3793</v>
+        <v>230399.1319</v>
       </c>
       <c r="L27" s="1">
-        <v>13.4674</v>
+        <v>13.4695</v>
       </c>
       <c r="M27" s="1">
         <v>0</v>
@@ -5750,7 +5753,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>-3</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>16.1958</v>
@@ -5780,10 +5783,10 @@
         <v>347048.9161</v>
       </c>
       <c r="K28" s="1">
-        <v>225984.3185</v>
+        <v>226037.568</v>
       </c>
       <c r="L28" s="1">
-        <v>13.433</v>
+        <v>13.4362</v>
       </c>
       <c r="M28" s="1">
         <v>0</v>
@@ -5803,7 +5806,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>-2</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>16.4264</v>
@@ -5833,10 +5836,10 @@
         <v>360894.2704</v>
       </c>
       <c r="K29" s="1">
-        <v>224059.1936</v>
+        <v>224120.1303</v>
       </c>
       <c r="L29" s="1">
-        <v>13.4132</v>
+        <v>13.4168</v>
       </c>
       <c r="M29" s="1">
         <v>0.75</v>
@@ -5856,7 +5859,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>-1</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>17.107</v>
@@ -5886,10 +5889,10 @@
         <v>393745.7035</v>
       </c>
       <c r="K30" s="1">
-        <v>230238.505</v>
+        <v>230299.4417</v>
       </c>
       <c r="L30" s="1">
-        <v>13.4801</v>
+        <v>13.4837</v>
       </c>
       <c r="M30" s="1">
         <v>0</v>
@@ -5909,7 +5912,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>16.8894</v>
@@ -5939,10 +5942,10 @@
         <v>400056.3263</v>
       </c>
       <c r="K31" s="1">
-        <v>228631.4583</v>
+        <v>228698.8171</v>
       </c>
       <c r="L31" s="1">
-        <v>13.4599</v>
+        <v>13.4639</v>
       </c>
       <c r="M31" s="1">
         <v>1</v>
@@ -5962,7 +5965,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>16.4004</v>
@@ -5992,10 +5995,10 @@
         <v>416603.3586</v>
       </c>
       <c r="K32" s="1">
-        <v>242375.7373</v>
+        <v>242443.0961</v>
       </c>
       <c r="L32" s="1">
-        <v>13.618</v>
+        <v>13.6217</v>
       </c>
       <c r="M32" s="1">
         <v>0</v>
@@ -6015,7 +6018,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>15.3877</v>
@@ -6045,10 +6048,10 @@
         <v>407385.8411</v>
       </c>
       <c r="K33" s="1">
-        <v>261136.2823</v>
+        <v>261203.6411</v>
       </c>
       <c r="L33" s="1">
-        <v>13.7877</v>
+        <v>13.7912</v>
       </c>
       <c r="M33" s="1">
         <v>0</v>
@@ -6068,7 +6071,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>14.6367</v>
@@ -6098,10 +6101,10 @@
         <v>401651.2085</v>
       </c>
       <c r="K34" s="1">
-        <v>290395.6928</v>
+        <v>290463.0516</v>
       </c>
       <c r="L34" s="1">
-        <v>13.9362</v>
+        <v>13.9394</v>
       </c>
       <c r="M34" s="1">
         <v>0</v>
@@ -6121,7 +6124,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>13.0061</v>
@@ -6151,10 +6154,10 @@
         <v>374785.6336</v>
       </c>
       <c r="K35" s="1">
-        <v>316116.1979</v>
+        <v>316183.5567</v>
       </c>
       <c r="L35" s="1">
-        <v>13.9928</v>
+        <v>13.9958</v>
       </c>
       <c r="M35" s="1">
         <v>0.5</v>
@@ -6174,7 +6177,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>13.835</v>
@@ -6204,10 +6207,10 @@
         <v>416431.6452</v>
       </c>
       <c r="K36" s="1">
-        <v>363066.7013</v>
+        <v>363134.0601</v>
       </c>
       <c r="L36" s="1">
-        <v>13.8607</v>
+        <v>13.8633</v>
       </c>
       <c r="M36" s="1">
         <v>0</v>
@@ -6227,7 +6230,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>14.4216</v>
@@ -6257,10 +6260,10 @@
         <v>441273.4318</v>
       </c>
       <c r="K37" s="1">
-        <v>351352.2568</v>
+        <v>351466.4304</v>
       </c>
       <c r="L37" s="1">
-        <v>13.8606</v>
+        <v>13.8651</v>
       </c>
       <c r="M37" s="1">
         <v>0</v>
@@ -6280,7 +6283,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>13.2404</v>
@@ -6310,10 +6313,10 @@
         <v>421786.1882</v>
       </c>
       <c r="K38" s="1">
-        <v>346491.0597</v>
+        <v>346624.6438</v>
       </c>
       <c r="L38" s="1">
-        <v>13.8527</v>
+        <v>13.8581</v>
       </c>
       <c r="M38" s="1">
         <v>0.4</v>
@@ -6333,7 +6336,7 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="2">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>12.382</v>
@@ -6363,10 +6366,10 @@
         <v>416644.0097</v>
       </c>
       <c r="K39" s="1">
-        <v>386136.6838</v>
+        <v>386270.268</v>
       </c>
       <c r="L39" s="1">
-        <v>13.7902</v>
+        <v>13.795</v>
       </c>
       <c r="M39" s="1">
         <v>0</v>
@@ -6386,7 +6389,7 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="2">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>11.9583</v>
@@ -6416,10 +6419,10 @@
         <v>413505.9348</v>
       </c>
       <c r="K40" s="1">
-        <v>420261.4081</v>
+        <v>420394.9922</v>
       </c>
       <c r="L40" s="1">
-        <v>13.6665</v>
+        <v>13.6708</v>
       </c>
       <c r="M40" s="1">
         <v>0</v>
@@ -6439,7 +6442,7 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="2">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>12.2036</v>
@@ -6469,10 +6472,10 @@
         <v>431413.3471</v>
       </c>
       <c r="K41" s="1">
-        <v>443355.3786</v>
+        <v>443488.9627</v>
       </c>
       <c r="L41" s="1">
-        <v>13.5671</v>
+        <v>13.5712</v>
       </c>
       <c r="M41" s="1">
         <v>0.4</v>
@@ -6492,7 +6495,7 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="2">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>12.9136</v>
@@ -6522,10 +6525,10 @@
         <v>476442.092</v>
       </c>
       <c r="K42" s="1">
-        <v>445363.6779</v>
+        <v>445497.262</v>
       </c>
       <c r="L42" s="1">
-        <v>13.5604</v>
+        <v>13.5645</v>
       </c>
       <c r="M42" s="1">
         <v>0</v>
@@ -6545,7 +6548,7 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="2">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1">
         <v>13.4338</v>
@@ -6575,10 +6578,10 @@
         <v>502956.2372</v>
       </c>
       <c r="K43" s="1">
-        <v>432037.9703</v>
+        <v>432224.7975</v>
       </c>
       <c r="L43" s="1">
-        <v>13.5805</v>
+        <v>13.5864</v>
       </c>
       <c r="M43" s="1">
         <v>0</v>
@@ -6598,7 +6601,7 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="2">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1">
         <v>12.9657</v>
@@ -6628,10 +6631,10 @@
         <v>498323.3243</v>
       </c>
       <c r="K44" s="1">
-        <v>425497.6848</v>
+        <v>425710.6523</v>
       </c>
       <c r="L44" s="1">
-        <v>13.5824</v>
+        <v>13.5892</v>
       </c>
       <c r="M44" s="1">
         <v>0.3</v>
@@ -6651,7 +6654,7 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="2">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1">
         <v>13.3568</v>
@@ -6681,10 +6684,10 @@
         <v>529652.8398</v>
       </c>
       <c r="K45" s="1">
-        <v>450229.3973</v>
+        <v>450442.3649</v>
       </c>
       <c r="L45" s="1">
-        <v>13.5486</v>
+        <v>13.555</v>
       </c>
       <c r="M45" s="1">
         <v>0</v>
@@ -6704,7 +6707,7 @@
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="2">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1">
         <v>13.2487</v>
@@ -6734,10 +6737,10 @@
         <v>536091.2761</v>
       </c>
       <c r="K46" s="1">
-        <v>447247.4933</v>
+        <v>447472.3808</v>
       </c>
       <c r="L46" s="1">
-        <v>13.5497</v>
+        <v>13.5565</v>
       </c>
       <c r="M46" s="1">
         <v>0</v>
@@ -6757,7 +6760,7 @@
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="2">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1">
         <v>13.3991</v>
@@ -6787,10 +6790,10 @@
         <v>551145.3698</v>
       </c>
       <c r="K47" s="1">
-        <v>460863.4173</v>
+        <v>461088.3048</v>
       </c>
       <c r="L47" s="1">
-        <v>13.5414</v>
+        <v>13.548</v>
       </c>
       <c r="M47" s="1">
         <v>0.4</v>
@@ -6810,7 +6813,7 @@
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="2">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1">
         <v>13.5985</v>
@@ -6840,10 +6843,10 @@
         <v>580223.3786000001</v>
       </c>
       <c r="K48" s="1">
-        <v>465774.57</v>
+        <v>465999.4575</v>
       </c>
       <c r="L48" s="1">
-        <v>13.5402</v>
+        <v>13.5467</v>
       </c>
       <c r="M48" s="1">
         <v>0</v>
@@ -6863,7 +6866,7 @@
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="2">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1">
         <v>13.6955</v>
@@ -6893,10 +6896,10 @@
         <v>593563.1024</v>
       </c>
       <c r="K49" s="1">
-        <v>468941.7207</v>
+        <v>469166.6082</v>
       </c>
       <c r="L49" s="1">
-        <v>13.5407</v>
+        <v>13.5472</v>
       </c>
       <c r="M49" s="1">
         <v>0</v>
@@ -6916,7 +6919,7 @@
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="2">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="B50" s="1">
         <v>13.3398</v>
@@ -6946,10 +6949,10 @@
         <v>591069.4647</v>
       </c>
       <c r="K50" s="1">
-        <v>475616.0047</v>
+        <v>475840.8922</v>
       </c>
       <c r="L50" s="1">
-        <v>13.5433</v>
+        <v>13.5497</v>
       </c>
       <c r="M50" s="1">
         <v>0.3</v>
@@ -6969,7 +6972,7 @@
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="2">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1">
         <v>12.8469</v>
@@ -6999,10 +7002,10 @@
         <v>592356.481</v>
       </c>
       <c r="K51" s="1">
-        <v>498173.1069</v>
+        <v>498397.9944</v>
       </c>
       <c r="L51" s="1">
-        <v>13.5352</v>
+        <v>13.5413</v>
       </c>
       <c r="M51" s="1">
         <v>0</v>
@@ -7022,7 +7025,7 @@
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="2">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1">
         <v>13.129</v>
@@ -7052,10 +7055,10 @@
         <v>613221.7209</v>
       </c>
       <c r="K52" s="1">
-        <v>526390.5776</v>
+        <v>526615.4651</v>
       </c>
       <c r="L52" s="1">
-        <v>13.4979</v>
+        <v>13.5037</v>
       </c>
       <c r="M52" s="1">
         <v>0</v>
@@ -7075,7 +7078,7 @@
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="2">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="B53" s="1">
         <v>12.716</v>
@@ -7105,10 +7108,10 @@
         <v>607181.4391</v>
       </c>
       <c r="K53" s="1">
-        <v>525408.7402999999</v>
+        <v>525637.5536</v>
       </c>
       <c r="L53" s="1">
-        <v>13.4986</v>
+        <v>13.5045</v>
       </c>
       <c r="M53" s="1">
         <v>0.3</v>
@@ -7128,7 +7131,7 @@
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="2">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1">
         <v>12.4613</v>
@@ -7158,10 +7161,10 @@
         <v>617170.3816</v>
       </c>
       <c r="K54" s="1">
-        <v>551553.4655</v>
+        <v>551782.2788</v>
       </c>
       <c r="L54" s="1">
-        <v>13.4607</v>
+        <v>13.4662</v>
       </c>
       <c r="M54" s="1">
         <v>0</v>
@@ -7181,7 +7184,7 @@
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="2">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1">
         <v>12.6545</v>
@@ -7211,10 +7214,10 @@
         <v>635304.9902</v>
       </c>
       <c r="K55" s="1">
-        <v>572051.281</v>
+        <v>572280.0943</v>
       </c>
       <c r="L55" s="1">
-        <v>13.4231</v>
+        <v>13.4285</v>
       </c>
       <c r="M55" s="1">
         <v>0</v>
@@ -7234,7 +7237,7 @@
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="2">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="B56" s="1">
         <v>12.2345</v>
@@ -7264,10 +7267,10 @@
         <v>627373.6547</v>
       </c>
       <c r="K56" s="1">
-        <v>573841.9151</v>
+        <v>574070.7283</v>
       </c>
       <c r="L56" s="1">
-        <v>13.4207</v>
+        <v>13.426</v>
       </c>
       <c r="M56" s="1">
         <v>0.3</v>
@@ -7287,7 +7290,7 @@
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="2">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1">
         <v>12.1636</v>
@@ -7317,10 +7320,10 @@
         <v>645621.5817</v>
       </c>
       <c r="K57" s="1">
-        <v>601878.1534</v>
+        <v>602106.9667</v>
       </c>
       <c r="L57" s="1">
-        <v>13.3617</v>
+        <v>13.3668</v>
       </c>
       <c r="M57" s="1">
         <v>0</v>
@@ -7340,7 +7343,7 @@
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="2">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1">
         <v>11.8145</v>
@@ -7370,10 +7373,10 @@
         <v>639496.5914</v>
       </c>
       <c r="K58" s="1">
-        <v>615115.7319</v>
+        <v>615344.5452000001</v>
       </c>
       <c r="L58" s="1">
-        <v>13.3341</v>
+        <v>13.339</v>
       </c>
       <c r="M58" s="1">
         <v>0</v>
@@ -7393,7 +7396,7 @@
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="2">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1">
         <v>11.2352</v>
@@ -7423,10 +7426,10 @@
         <v>621440.4456</v>
       </c>
       <c r="K59" s="1">
-        <v>641292.4183</v>
+        <v>641521.2316000001</v>
       </c>
       <c r="L59" s="1">
-        <v>13.2656</v>
+        <v>13.2704</v>
       </c>
       <c r="M59" s="1">
         <v>0.3</v>
@@ -7446,7 +7449,7 @@
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="2">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="B60" s="1">
         <v>10.8241</v>
@@ -7476,10 +7479,10 @@
         <v>623116.9606</v>
       </c>
       <c r="K60" s="1">
-        <v>679396.2854000001</v>
+        <v>679625.0987</v>
       </c>
       <c r="L60" s="1">
-        <v>13.1343</v>
+        <v>13.1387</v>
       </c>
       <c r="M60" s="1">
         <v>0</v>
@@ -7499,7 +7502,7 @@
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="2">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="B61" s="1">
         <v>11.2543</v>
@@ -7529,10 +7532,10 @@
         <v>656444.267</v>
       </c>
       <c r="K61" s="1">
-        <v>710745.3427</v>
+        <v>710974.156</v>
       </c>
       <c r="L61" s="1">
-        <v>13.0131</v>
+        <v>13.0173</v>
       </c>
       <c r="M61" s="1">
         <v>0</v>
@@ -7552,7 +7555,7 @@
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="2">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1">
         <v>10.5675</v>
@@ -7582,10 +7585,10 @@
         <v>629830.3672</v>
       </c>
       <c r="K62" s="1">
-        <v>697238.5735000001</v>
+        <v>697521.4047</v>
       </c>
       <c r="L62" s="1">
-        <v>13.0521</v>
+        <v>13.0574</v>
       </c>
       <c r="M62" s="1">
         <v>0.3</v>
@@ -7690,7 +7693,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-29</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>13.8109</v>
@@ -7737,7 +7740,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-28</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>13.9322</v>
@@ -7790,7 +7793,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-27</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>12.5846</v>
@@ -7843,7 +7846,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-26</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>12.2867</v>
@@ -7896,7 +7899,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-25</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>13.0645</v>
@@ -7949,7 +7952,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-24</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>13.8083</v>
@@ -8002,7 +8005,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-23</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>13.5636</v>
@@ -8055,7 +8058,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-22</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>13.1788</v>
@@ -8108,7 +8111,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-21</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>14.5668</v>
@@ -8161,7 +8164,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-20</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>13.962</v>
@@ -8214,7 +8217,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-19</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>12.2659</v>
@@ -8267,7 +8270,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-18</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>12.4103</v>
@@ -8320,7 +8323,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-17</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>12.3976</v>
@@ -8373,7 +8376,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-16</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>12.9013</v>
@@ -8426,7 +8429,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>13.3527</v>
@@ -8479,7 +8482,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-14</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>13.8804</v>
@@ -8532,7 +8535,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-13</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>14.6268</v>
@@ -8585,7 +8588,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-12</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>15.3636</v>
@@ -8638,7 +8641,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>-11</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>13.8711</v>
@@ -8691,7 +8694,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>-10</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>14.1252</v>
@@ -8744,7 +8747,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>-9</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>14.1934</v>
@@ -8797,7 +8800,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>-8</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>14.1176</v>
@@ -8850,7 +8853,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>-7</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>15.3311</v>
@@ -8903,7 +8906,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>-6</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>15.3637</v>
@@ -8933,10 +8936,10 @@
         <v>290094.5378</v>
       </c>
       <c r="K25" s="1">
-        <v>211406.1155</v>
+        <v>211441.3339</v>
       </c>
       <c r="L25" s="1">
-        <v>13.3054</v>
+        <v>13.3076</v>
       </c>
       <c r="M25" s="1">
         <v>0</v>
@@ -8956,7 +8959,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>-5</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>14.6447</v>
@@ -8986,10 +8989,10 @@
         <v>288149.2166</v>
       </c>
       <c r="K26" s="1">
-        <v>222146.5702</v>
+        <v>222181.7886</v>
       </c>
       <c r="L26" s="1">
-        <v>13.3933</v>
+        <v>13.3954</v>
       </c>
       <c r="M26" s="1">
         <v>1</v>
@@ -9009,7 +9012,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>-4</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>15.486</v>
@@ -9039,10 +9042,10 @@
         <v>328241.2946</v>
       </c>
       <c r="K27" s="1">
-        <v>245413.4973</v>
+        <v>245448.7157</v>
       </c>
       <c r="L27" s="1">
-        <v>13.505</v>
+        <v>13.507</v>
       </c>
       <c r="M27" s="1">
         <v>0</v>
@@ -9062,7 +9065,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>-3</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>16.1958</v>
@@ -9092,10 +9095,10 @@
         <v>350934.2415</v>
       </c>
       <c r="K28" s="1">
-        <v>241468.4732</v>
+        <v>241519.4544</v>
       </c>
       <c r="L28" s="1">
-        <v>13.4765</v>
+        <v>13.4793</v>
       </c>
       <c r="M28" s="1">
         <v>0</v>
@@ -9115,7 +9118,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>-2</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>16.4264</v>
@@ -9145,10 +9148,10 @@
         <v>365040.2781</v>
       </c>
       <c r="K29" s="1">
-        <v>240154.8765</v>
+        <v>240211.103</v>
       </c>
       <c r="L29" s="1">
-        <v>13.464</v>
+        <v>13.4671</v>
       </c>
       <c r="M29" s="1">
         <v>0.75</v>
@@ -9168,7 +9171,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>-1</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>17.107</v>
@@ -9198,10 +9201,10 @@
         <v>399469.4203</v>
       </c>
       <c r="K30" s="1">
-        <v>247519.7566</v>
+        <v>247575.983</v>
       </c>
       <c r="L30" s="1">
-        <v>13.5373</v>
+        <v>13.5404</v>
       </c>
       <c r="M30" s="1">
         <v>0</v>
@@ -9221,7 +9224,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>16.8894</v>
@@ -9251,10 +9254,10 @@
         <v>405509.7778</v>
       </c>
       <c r="K31" s="1">
-        <v>246596.1066</v>
+        <v>246656.0242</v>
       </c>
       <c r="L31" s="1">
-        <v>13.5266</v>
+        <v>13.5299</v>
       </c>
       <c r="M31" s="1">
         <v>1</v>
@@ -9274,7 +9277,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>16.4004</v>
@@ -9304,10 +9307,10 @@
         <v>422509.2628</v>
       </c>
       <c r="K32" s="1">
-        <v>262174.1958</v>
+        <v>262234.1134</v>
       </c>
       <c r="L32" s="1">
-        <v>13.6899</v>
+        <v>13.693</v>
       </c>
       <c r="M32" s="1">
         <v>0</v>
@@ -9327,7 +9330,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>15.3877</v>
@@ -9357,10 +9360,10 @@
         <v>411775.0411</v>
       </c>
       <c r="K33" s="1">
-        <v>283217.9759</v>
+        <v>283277.8934</v>
       </c>
       <c r="L33" s="1">
-        <v>13.8618</v>
+        <v>13.8648</v>
       </c>
       <c r="M33" s="1">
         <v>0</v>
@@ -9380,7 +9383,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>14.6367</v>
@@ -9410,10 +9413,10 @@
         <v>404754.5044</v>
       </c>
       <c r="K34" s="1">
-        <v>315669.7873</v>
+        <v>315729.7049</v>
       </c>
       <c r="L34" s="1">
-        <v>14.0072</v>
+        <v>14.0099</v>
       </c>
       <c r="M34" s="1">
         <v>0</v>
@@ -9433,7 +9436,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>13.0061</v>
@@ -9463,10 +9466,10 @@
         <v>374778.0354</v>
       </c>
       <c r="K35" s="1">
-        <v>344405.9228</v>
+        <v>344465.8404</v>
       </c>
       <c r="L35" s="1">
-        <v>14.0599</v>
+        <v>14.0624</v>
       </c>
       <c r="M35" s="1">
         <v>0.5</v>
@@ -9486,7 +9489,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>13.835</v>
@@ -9516,10 +9519,10 @@
         <v>419148.0813</v>
       </c>
       <c r="K36" s="1">
-        <v>396263.9737</v>
+        <v>396323.8913</v>
       </c>
       <c r="L36" s="1">
-        <v>13.9163</v>
+        <v>13.9184</v>
       </c>
       <c r="M36" s="1">
         <v>0</v>
@@ -9539,7 +9542,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>14.4216</v>
@@ -9569,10 +9572,10 @@
         <v>445323.6688</v>
       </c>
       <c r="K37" s="1">
-        <v>384510.6777</v>
+        <v>384617.5654</v>
       </c>
       <c r="L37" s="1">
-        <v>13.9179</v>
+        <v>13.9218</v>
       </c>
       <c r="M37" s="1">
         <v>0</v>
@@ -9592,7 +9595,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>13.2404</v>
@@ -9622,10 +9625,10 @@
         <v>423103.8546</v>
       </c>
       <c r="K38" s="1">
-        <v>380225.2477</v>
+        <v>380349.2469</v>
       </c>
       <c r="L38" s="1">
-        <v>13.9122</v>
+        <v>13.9167</v>
       </c>
       <c r="M38" s="1">
         <v>0.4</v>
@@ -9645,7 +9648,7 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="2">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>12.382</v>
@@ -9675,10 +9678,10 @@
         <v>416486.8513</v>
       </c>
       <c r="K39" s="1">
-        <v>424589.0965</v>
+        <v>424713.0956</v>
       </c>
       <c r="L39" s="1">
-        <v>13.8418</v>
+        <v>13.8459</v>
       </c>
       <c r="M39" s="1">
         <v>0</v>
@@ -9698,7 +9701,7 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="2">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>11.9583</v>
@@ -9728,10 +9731,10 @@
         <v>412053.3692</v>
       </c>
       <c r="K40" s="1">
-        <v>463048.2075</v>
+        <v>463172.2067</v>
       </c>
       <c r="L40" s="1">
-        <v>13.7101</v>
+        <v>13.7138</v>
       </c>
       <c r="M40" s="1">
         <v>0</v>
@@ -9751,7 +9754,7 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="2">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>12.2036</v>
@@ -9781,10 +9784,10 @@
         <v>430633.1596</v>
       </c>
       <c r="K41" s="1">
-        <v>482026.8126</v>
+        <v>482150.8117</v>
       </c>
       <c r="L41" s="1">
-        <v>13.6327</v>
+        <v>13.6362</v>
       </c>
       <c r="M41" s="1">
         <v>0.4</v>
@@ -9804,7 +9807,7 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="2">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>12.9136</v>
@@ -9834,10 +9837,10 @@
         <v>478956.3018</v>
       </c>
       <c r="K42" s="1">
-        <v>492026.8126</v>
+        <v>492150.8117</v>
       </c>
       <c r="L42" s="1">
-        <v>13.601</v>
+        <v>13.6044</v>
       </c>
       <c r="M42" s="1">
         <v>0</v>
@@ -9857,7 +9860,7 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="2">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1">
         <v>13.4338</v>
@@ -9887,10 +9890,10 @@
         <v>507234.4966</v>
       </c>
       <c r="K43" s="1">
-        <v>479545.9684</v>
+        <v>479719.835</v>
       </c>
       <c r="L43" s="1">
-        <v>13.6191</v>
+        <v>13.624</v>
       </c>
       <c r="M43" s="1">
         <v>0</v>
@@ -9910,7 +9913,7 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="2">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1">
         <v>12.9657</v>
@@ -9940,10 +9943,10 @@
         <v>500996.6529</v>
       </c>
       <c r="K44" s="1">
-        <v>473512.6415</v>
+        <v>473710.6223</v>
       </c>
       <c r="L44" s="1">
-        <v>13.6211</v>
+        <v>13.6268</v>
       </c>
       <c r="M44" s="1">
         <v>0.3</v>
@@ -9963,7 +9966,7 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="2">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1">
         <v>13.3568</v>
@@ -9993,10 +9996,10 @@
         <v>534697.8386</v>
       </c>
       <c r="K45" s="1">
-        <v>502195.3958</v>
+        <v>502393.3765</v>
       </c>
       <c r="L45" s="1">
-        <v>13.5835</v>
+        <v>13.5889</v>
       </c>
       <c r="M45" s="1">
         <v>0</v>
@@ -10016,7 +10019,7 @@
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="2">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1">
         <v>13.2487</v>
@@ -10046,10 +10049,10 @@
         <v>540725.1757</v>
       </c>
       <c r="K46" s="1">
-        <v>500149.4636</v>
+        <v>500355.6227</v>
       </c>
       <c r="L46" s="1">
-        <v>13.5844</v>
+        <v>13.59</v>
       </c>
       <c r="M46" s="1">
         <v>0</v>
@@ -10069,7 +10072,7 @@
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="2">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1">
         <v>13.3991</v>
@@ -10099,10 +10102,10 @@
         <v>556372.1906</v>
       </c>
       <c r="K47" s="1">
-        <v>516641.9095</v>
+        <v>516848.0687</v>
       </c>
       <c r="L47" s="1">
-        <v>13.5743</v>
+        <v>13.5797</v>
       </c>
       <c r="M47" s="1">
         <v>0.4</v>
@@ -10122,7 +10125,7 @@
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="2">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1">
         <v>13.5985</v>
@@ -10152,10 +10155,10 @@
         <v>587721.9041</v>
       </c>
       <c r="K48" s="1">
-        <v>523472.528</v>
+        <v>523678.6872</v>
       </c>
       <c r="L48" s="1">
-        <v>13.5723</v>
+        <v>13.5777</v>
       </c>
       <c r="M48" s="1">
         <v>0</v>
@@ -10175,7 +10178,7 @@
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="2">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1">
         <v>13.6955</v>
@@ -10205,10 +10208,10 @@
         <v>601470.7147</v>
       </c>
       <c r="K49" s="1">
-        <v>528395.7179</v>
+        <v>528601.8771</v>
       </c>
       <c r="L49" s="1">
-        <v>13.5728</v>
+        <v>13.5781</v>
       </c>
       <c r="M49" s="1">
         <v>0</v>
@@ -10228,7 +10231,7 @@
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="2">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="B50" s="1">
         <v>13.3398</v>
@@ -10258,10 +10261,10 @@
         <v>597384.3709</v>
       </c>
       <c r="K50" s="1">
-        <v>537304.5105</v>
+        <v>537510.6697</v>
       </c>
       <c r="L50" s="1">
-        <v>13.5753</v>
+        <v>13.5805</v>
       </c>
       <c r="M50" s="1">
         <v>0.3</v>
@@ -10281,7 +10284,7 @@
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="2">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1">
         <v>12.8469</v>
@@ -10311,10 +10314,10 @@
         <v>597505.7486</v>
       </c>
       <c r="K51" s="1">
-        <v>564167.4895</v>
+        <v>564373.6487</v>
       </c>
       <c r="L51" s="1">
-        <v>13.5652</v>
+        <v>13.5701</v>
       </c>
       <c r="M51" s="1">
         <v>0</v>
@@ -10334,7 +10337,7 @@
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="2">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1">
         <v>13.129</v>
@@ -10364,10 +10367,10 @@
         <v>619809.4570000001</v>
       </c>
       <c r="K52" s="1">
-        <v>597526.9117000001</v>
+        <v>597733.0709</v>
       </c>
       <c r="L52" s="1">
-        <v>13.5246</v>
+        <v>13.5292</v>
       </c>
       <c r="M52" s="1">
         <v>0</v>
@@ -10387,7 +10390,7 @@
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="2">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="B53" s="1">
         <v>12.716</v>
@@ -10417,10 +10420,10 @@
         <v>611588.5037</v>
       </c>
       <c r="K53" s="1">
-        <v>597923.8451</v>
+        <v>598130.0043</v>
       </c>
       <c r="L53" s="1">
-        <v>13.5243</v>
+        <v>13.529</v>
       </c>
       <c r="M53" s="1">
         <v>0.3</v>
@@ -10440,7 +10443,7 @@
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="2">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1">
         <v>12.4613</v>
@@ -10470,10 +10473,10 @@
         <v>621538.9704</v>
       </c>
       <c r="K54" s="1">
-        <v>629164.4314</v>
+        <v>629370.5905</v>
       </c>
       <c r="L54" s="1">
-        <v>13.4832</v>
+        <v>13.4876</v>
       </c>
       <c r="M54" s="1">
         <v>0</v>
@@ -10493,7 +10496,7 @@
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="2">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1">
         <v>12.6545</v>
@@ -10523,10 +10526,10 @@
         <v>640820.8025</v>
       </c>
       <c r="K55" s="1">
-        <v>654086.6429</v>
+        <v>654292.8021</v>
       </c>
       <c r="L55" s="1">
-        <v>13.4423</v>
+        <v>13.4465</v>
       </c>
       <c r="M55" s="1">
         <v>0</v>
@@ -10546,7 +10549,7 @@
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="2">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="B56" s="1">
         <v>12.2345</v>
@@ -10576,10 +10579,10 @@
         <v>630287.4089</v>
       </c>
       <c r="K56" s="1">
-        <v>657745.5482</v>
+        <v>657951.7073</v>
       </c>
       <c r="L56" s="1">
-        <v>13.4378</v>
+        <v>13.442</v>
       </c>
       <c r="M56" s="1">
         <v>0.3</v>
@@ -10599,7 +10602,7 @@
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="2">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1">
         <v>12.1636</v>
@@ -10629,10 +10632,10 @@
         <v>649713.1425</v>
       </c>
       <c r="K57" s="1">
-        <v>691490.0253</v>
+        <v>691696.1845</v>
       </c>
       <c r="L57" s="1">
-        <v>13.375</v>
+        <v>13.379</v>
       </c>
       <c r="M57" s="1">
         <v>0</v>
@@ -10652,7 +10655,7 @@
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="2">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1">
         <v>11.8145</v>
@@ -10682,10 +10685,10 @@
         <v>641150.9049</v>
       </c>
       <c r="K58" s="1">
-        <v>708368.9521</v>
+        <v>708575.1112</v>
       </c>
       <c r="L58" s="1">
-        <v>13.3441</v>
+        <v>13.3479</v>
       </c>
       <c r="M58" s="1">
         <v>0</v>
@@ -10705,7 +10708,7 @@
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="2">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1">
         <v>11.2352</v>
@@ -10735,10 +10738,10 @@
         <v>619124.0154</v>
       </c>
       <c r="K59" s="1">
-        <v>733600.6125</v>
+        <v>733806.7717</v>
       </c>
       <c r="L59" s="1">
-        <v>13.2859</v>
+        <v>13.2897</v>
       </c>
       <c r="M59" s="1">
         <v>0.3</v>
@@ -10758,7 +10761,7 @@
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="2">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="B60" s="1">
         <v>10.8241</v>
@@ -10788,10 +10791,10 @@
         <v>620972.7316000001</v>
       </c>
       <c r="K60" s="1">
-        <v>743600.6125</v>
+        <v>743806.7717</v>
       </c>
       <c r="L60" s="1">
-        <v>13.2538</v>
+        <v>13.2575</v>
       </c>
       <c r="M60" s="1">
         <v>0</v>
@@ -10811,7 +10814,7 @@
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="2">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="B61" s="1">
         <v>11.2543</v>
@@ -10841,10 +10844,10 @@
         <v>655950.5322</v>
       </c>
       <c r="K61" s="1">
-        <v>768509.0185</v>
+        <v>768715.1777</v>
       </c>
       <c r="L61" s="1">
-        <v>13.1591</v>
+        <v>13.1627</v>
       </c>
       <c r="M61" s="1">
         <v>0</v>
@@ -10864,7 +10867,7 @@
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="2">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1">
         <v>10.5675</v>
@@ -10894,10 +10897,10 @@
         <v>625274.5693</v>
       </c>
       <c r="K62" s="1">
-        <v>778509.0185</v>
+        <v>778715.1777</v>
       </c>
       <c r="L62" s="1">
-        <v>13.131</v>
+        <v>13.1345</v>
       </c>
       <c r="M62" s="1">
         <v>0.3</v>
@@ -11002,7 +11005,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-29</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>13.8109</v>
@@ -11049,7 +11052,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-28</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>13.9322</v>
@@ -11102,7 +11105,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-27</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>12.5846</v>
@@ -11155,7 +11158,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-26</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>12.2867</v>
@@ -11208,7 +11211,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-25</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>13.0645</v>
@@ -11261,7 +11264,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-24</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>13.8083</v>
@@ -11314,7 +11317,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-23</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>13.5636</v>
@@ -11367,7 +11370,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-22</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>13.1788</v>
@@ -11420,7 +11423,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-21</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>14.5668</v>
@@ -11473,7 +11476,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-20</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>13.962</v>
@@ -11526,7 +11529,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-19</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>12.2659</v>
@@ -11579,7 +11582,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-18</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>12.4103</v>
@@ -11632,7 +11635,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-17</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>12.3976</v>
@@ -11685,7 +11688,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-16</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>12.9013</v>
@@ -11738,7 +11741,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>13.3527</v>
@@ -11791,7 +11794,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-14</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>13.8804</v>
@@ -11844,7 +11847,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-13</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>14.6268</v>
@@ -11897,7 +11900,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-12</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>15.3636</v>
@@ -11950,7 +11953,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>-11</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>13.8711</v>
@@ -12003,7 +12006,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>-10</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>14.1252</v>
@@ -12056,7 +12059,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>-9</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>14.1934</v>
@@ -12109,7 +12112,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>-8</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>14.1176</v>
@@ -12162,7 +12165,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>-7</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>15.3311</v>
@@ -12215,7 +12218,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>-6</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>15.3637</v>
@@ -12245,10 +12248,10 @@
         <v>292122.4661</v>
       </c>
       <c r="K25" s="1">
-        <v>224341.8399</v>
+        <v>224376.2971</v>
       </c>
       <c r="L25" s="1">
-        <v>13.3476</v>
+        <v>13.3497</v>
       </c>
       <c r="M25" s="1">
         <v>0</v>
@@ -12268,7 +12271,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>-5</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>14.6447</v>
@@ -12298,10 +12301,10 @@
         <v>289450.3835</v>
       </c>
       <c r="K26" s="1">
-        <v>236413.7689</v>
+        <v>236448.226</v>
       </c>
       <c r="L26" s="1">
-        <v>13.4389</v>
+        <v>13.4408</v>
       </c>
       <c r="M26" s="1">
         <v>1</v>
@@ -12321,7 +12324,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>-4</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>15.486</v>
@@ -12351,10 +12354,10 @@
         <v>331406.1147</v>
       </c>
       <c r="K27" s="1">
-        <v>261836.4959</v>
+        <v>261870.9531</v>
       </c>
       <c r="L27" s="1">
-        <v>13.5496</v>
+        <v>13.5514</v>
       </c>
       <c r="M27" s="1">
         <v>0</v>
@@ -12374,7 +12377,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>-3</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>16.1958</v>
@@ -12404,10 +12407,10 @@
         <v>354939.5715</v>
       </c>
       <c r="K28" s="1">
-        <v>258422.5144</v>
+        <v>258470.6125</v>
       </c>
       <c r="L28" s="1">
-        <v>13.527</v>
+        <v>13.5295</v>
       </c>
       <c r="M28" s="1">
         <v>0</v>
@@ -12427,7 +12430,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>-2</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>16.4264</v>
@@ -12457,10 +12460,10 @@
         <v>369329.0986</v>
       </c>
       <c r="K29" s="1">
-        <v>257839.292</v>
+        <v>257889.719</v>
       </c>
       <c r="L29" s="1">
-        <v>13.5219</v>
+        <v>13.5245</v>
       </c>
       <c r="M29" s="1">
         <v>0.75</v>
@@ -12480,7 +12483,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>-1</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>17.107</v>
@@ -12510,10 +12513,10 @@
         <v>405476.7201</v>
       </c>
       <c r="K30" s="1">
-        <v>266566.6905</v>
+        <v>266617.1174</v>
       </c>
       <c r="L30" s="1">
-        <v>13.6013</v>
+        <v>13.6039</v>
       </c>
       <c r="M30" s="1">
         <v>0</v>
@@ -12533,7 +12536,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>16.8894</v>
@@ -12563,10 +12566,10 @@
         <v>411221.1649</v>
       </c>
       <c r="K31" s="1">
-        <v>266467.8627</v>
+        <v>266518.6846</v>
       </c>
       <c r="L31" s="1">
-        <v>13.6003</v>
+        <v>13.6029</v>
       </c>
       <c r="M31" s="1">
         <v>1</v>
@@ -12586,7 +12589,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>16.4004</v>
@@ -12616,10 +12619,10 @@
         <v>428713.2399</v>
       </c>
       <c r="K32" s="1">
-        <v>284139.0444</v>
+        <v>284189.8663</v>
       </c>
       <c r="L32" s="1">
-        <v>13.7684</v>
+        <v>13.7709</v>
       </c>
       <c r="M32" s="1">
         <v>0</v>
@@ -12639,7 +12642,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>15.3877</v>
@@ -12669,10 +12672,10 @@
         <v>416306.7295</v>
       </c>
       <c r="K33" s="1">
-        <v>307782.9143</v>
+        <v>307833.7362</v>
       </c>
       <c r="L33" s="1">
-        <v>13.9421</v>
+        <v>13.9444</v>
       </c>
       <c r="M33" s="1">
         <v>0</v>
@@ -12692,7 +12695,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>14.6367</v>
@@ -12722,10 +12725,10 @@
         <v>407863.4868</v>
       </c>
       <c r="K34" s="1">
-        <v>343852.2754</v>
+        <v>343903.0973</v>
       </c>
       <c r="L34" s="1">
-        <v>14.0836</v>
+        <v>14.0857</v>
       </c>
       <c r="M34" s="1">
         <v>0</v>
@@ -12745,7 +12748,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>13.0061</v>
@@ -12775,10 +12778,10 @@
         <v>374433.8949</v>
       </c>
       <c r="K35" s="1">
-        <v>376029.3886</v>
+        <v>376080.2105</v>
       </c>
       <c r="L35" s="1">
-        <v>14.1316</v>
+        <v>14.1335</v>
       </c>
       <c r="M35" s="1">
         <v>0.5</v>
@@ -12798,7 +12801,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>13.835</v>
@@ -12828,10 +12831,10 @@
         <v>420741.2863</v>
       </c>
       <c r="K36" s="1">
-        <v>415074.222</v>
+        <v>415125.0439</v>
       </c>
       <c r="L36" s="1">
-        <v>14.0203</v>
+        <v>14.0221</v>
       </c>
       <c r="M36" s="1">
         <v>0</v>
@@ -12851,7 +12854,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>14.4216</v>
@@ -12881,10 +12884,10 @@
         <v>448375.9305</v>
       </c>
       <c r="K37" s="1">
-        <v>422941.2357</v>
+        <v>422992.0576</v>
       </c>
       <c r="L37" s="1">
-        <v>14.0174</v>
+        <v>14.0191</v>
       </c>
       <c r="M37" s="1">
         <v>0</v>
@@ -12904,7 +12907,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>13.2404</v>
@@ -12934,10 +12937,10 @@
         <v>423092.0859</v>
       </c>
       <c r="K38" s="1">
-        <v>419427.1483</v>
+        <v>419492.0018</v>
       </c>
       <c r="L38" s="1">
-        <v>14.0139</v>
+        <v>14.016</v>
       </c>
       <c r="M38" s="1">
         <v>0.4</v>
@@ -12957,7 +12960,7 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="2">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>12.382</v>
@@ -12987,10 +12990,10 @@
         <v>415647.4314</v>
       </c>
       <c r="K39" s="1">
-        <v>457034.2953</v>
+        <v>457099.1487</v>
       </c>
       <c r="L39" s="1">
-        <v>13.9492</v>
+        <v>13.9512</v>
       </c>
       <c r="M39" s="1">
         <v>0</v>
@@ -13010,7 +13013,7 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="2">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>11.9583</v>
@@ -13040,10 +13043,10 @@
         <v>411003.7483</v>
       </c>
       <c r="K40" s="1">
-        <v>477808.9022</v>
+        <v>477873.7556</v>
       </c>
       <c r="L40" s="1">
-        <v>13.8742</v>
+        <v>13.8761</v>
       </c>
       <c r="M40" s="1">
         <v>0</v>
@@ -13063,7 +13066,7 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="2">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>12.2036</v>
@@ -13093,10 +13096,10 @@
         <v>429598.6376</v>
       </c>
       <c r="K41" s="1">
-        <v>487808.9022</v>
+        <v>487873.7556</v>
       </c>
       <c r="L41" s="1">
-        <v>13.8295</v>
+        <v>13.8313</v>
       </c>
       <c r="M41" s="1">
         <v>0.4</v>
@@ -13116,7 +13119,7 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="2">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>12.9136</v>
@@ -13146,10 +13149,10 @@
         <v>477831.0111</v>
       </c>
       <c r="K42" s="1">
-        <v>497808.9022</v>
+        <v>497873.7556</v>
       </c>
       <c r="L42" s="1">
-        <v>13.7932</v>
+        <v>13.795</v>
       </c>
       <c r="M42" s="1">
         <v>0</v>
@@ -13169,7 +13172,7 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="2">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1">
         <v>13.4338</v>
@@ -13199,10 +13202,10 @@
         <v>507385.7205</v>
       </c>
       <c r="K43" s="1">
-        <v>520507.2329</v>
+        <v>520572.0863</v>
       </c>
       <c r="L43" s="1">
-        <v>13.7536</v>
+        <v>13.7553</v>
       </c>
       <c r="M43" s="1">
         <v>0</v>
@@ -13222,7 +13225,7 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="2">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1">
         <v>12.9657</v>
@@ -13252,10 +13255,10 @@
         <v>499321.2873</v>
       </c>
       <c r="K44" s="1">
-        <v>530507.2328999999</v>
+        <v>530572.0863</v>
       </c>
       <c r="L44" s="1">
-        <v>13.748</v>
+        <v>13.7497</v>
       </c>
       <c r="M44" s="1">
         <v>0.3</v>
@@ -13275,7 +13278,7 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="2">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1">
         <v>13.3568</v>
@@ -13305,10 +13308,10 @@
         <v>535061.4322</v>
       </c>
       <c r="K45" s="1">
-        <v>540507.2328999999</v>
+        <v>540572.0863</v>
       </c>
       <c r="L45" s="1">
-        <v>13.7332</v>
+        <v>13.7348</v>
       </c>
       <c r="M45" s="1">
         <v>0</v>
@@ -13328,7 +13331,7 @@
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="2">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1">
         <v>13.2487</v>
@@ -13358,10 +13361,10 @@
         <v>540568.4907</v>
       </c>
       <c r="K46" s="1">
-        <v>560925.9987999999</v>
+        <v>560990.8523</v>
       </c>
       <c r="L46" s="1">
-        <v>13.7201</v>
+        <v>13.7217</v>
       </c>
       <c r="M46" s="1">
         <v>0</v>
@@ -13381,7 +13384,7 @@
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="2">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1">
         <v>13.3991</v>
@@ -13411,10 +13414,10 @@
         <v>556778.233</v>
       </c>
       <c r="K47" s="1">
-        <v>570925.9987999999</v>
+        <v>570990.8523</v>
       </c>
       <c r="L47" s="1">
-        <v>13.7121</v>
+        <v>13.7136</v>
       </c>
       <c r="M47" s="1">
         <v>0.4</v>
@@ -13434,7 +13437,7 @@
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="2">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1">
         <v>13.5985</v>
@@ -13464,10 +13467,10 @@
         <v>590161.4375999999</v>
       </c>
       <c r="K48" s="1">
-        <v>580925.9987999999</v>
+        <v>580990.8523</v>
       </c>
       <c r="L48" s="1">
-        <v>13.7071</v>
+        <v>13.7086</v>
       </c>
       <c r="M48" s="1">
         <v>0</v>
@@ -13487,7 +13490,7 @@
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="2">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1">
         <v>13.6955</v>
@@ -13517,10 +13520,10 @@
         <v>604329.8621</v>
       </c>
       <c r="K49" s="1">
-        <v>602101.7541</v>
+        <v>602166.6075</v>
       </c>
       <c r="L49" s="1">
-        <v>13.7042</v>
+        <v>13.7057</v>
       </c>
       <c r="M49" s="1">
         <v>0</v>
@@ -13540,7 +13543,7 @@
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="2">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="B50" s="1">
         <v>13.3398</v>
@@ -13570,10 +13573,10 @@
         <v>598381.6361999999</v>
       </c>
       <c r="K50" s="1">
-        <v>613858.3687</v>
+        <v>613923.2221</v>
       </c>
       <c r="L50" s="1">
-        <v>13.7045</v>
+        <v>13.706</v>
       </c>
       <c r="M50" s="1">
         <v>0.3</v>
@@ -13593,7 +13596,7 @@
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="2">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1">
         <v>12.8469</v>
@@ -13623,10 +13626,10 @@
         <v>597950.3467</v>
       </c>
       <c r="K51" s="1">
-        <v>625915.2052</v>
+        <v>625980.0586</v>
       </c>
       <c r="L51" s="1">
-        <v>13.6979</v>
+        <v>13.6993</v>
       </c>
       <c r="M51" s="1">
         <v>0</v>
@@ -13646,7 +13649,7 @@
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="2">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1">
         <v>13.129</v>
@@ -13676,10 +13679,10 @@
         <v>621208.2395</v>
       </c>
       <c r="K52" s="1">
-        <v>648009.1348999999</v>
+        <v>648073.9883</v>
       </c>
       <c r="L52" s="1">
-        <v>13.668</v>
+        <v>13.6694</v>
       </c>
       <c r="M52" s="1">
         <v>0</v>
@@ -13699,7 +13702,7 @@
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="2">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="B53" s="1">
         <v>12.716</v>
@@ -13729,10 +13732,10 @@
         <v>611317.0464</v>
       </c>
       <c r="K53" s="1">
-        <v>658009.1348999999</v>
+        <v>658073.9883</v>
       </c>
       <c r="L53" s="1">
-        <v>13.6599</v>
+        <v>13.6612</v>
       </c>
       <c r="M53" s="1">
         <v>0.3</v>
@@ -13752,7 +13755,7 @@
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="2">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1">
         <v>12.4613</v>
@@ -13782,10 +13785,10 @@
         <v>621838.6922</v>
       </c>
       <c r="K54" s="1">
-        <v>668009.1348999999</v>
+        <v>668073.9883</v>
       </c>
       <c r="L54" s="1">
-        <v>13.6452</v>
+        <v>13.6465</v>
       </c>
       <c r="M54" s="1">
         <v>0</v>
@@ -13805,7 +13808,7 @@
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="2">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1">
         <v>12.6545</v>
@@ -13835,10 +13838,10 @@
         <v>641540.6442</v>
       </c>
       <c r="K55" s="1">
-        <v>691015.2656</v>
+        <v>691080.1189999999</v>
       </c>
       <c r="L55" s="1">
-        <v>13.6031</v>
+        <v>13.6044</v>
       </c>
       <c r="M55" s="1">
         <v>0</v>
@@ -13858,7 +13861,7 @@
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="2">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="B56" s="1">
         <v>12.2345</v>
@@ -13888,10 +13891,10 @@
         <v>629875.4516</v>
       </c>
       <c r="K56" s="1">
-        <v>701015.2656</v>
+        <v>701080.1189999999</v>
       </c>
       <c r="L56" s="1">
-        <v>13.589</v>
+        <v>13.5903</v>
       </c>
       <c r="M56" s="1">
         <v>0.3</v>
@@ -13911,7 +13914,7 @@
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="2">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1">
         <v>12.1636</v>
@@ -13941,10 +13944,10 @@
         <v>650059.0685000001</v>
       </c>
       <c r="K57" s="1">
-        <v>711015.2656</v>
+        <v>711080.1189999999</v>
       </c>
       <c r="L57" s="1">
-        <v>13.5683</v>
+        <v>13.5696</v>
       </c>
       <c r="M57" s="1">
         <v>0</v>
@@ -13964,7 +13967,7 @@
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="2">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1">
         <v>11.8145</v>
@@ -13994,10 +13997,10 @@
         <v>641022.392</v>
       </c>
       <c r="K58" s="1">
-        <v>734943.7154</v>
+        <v>735008.5688</v>
       </c>
       <c r="L58" s="1">
-        <v>13.5185</v>
+        <v>13.5197</v>
       </c>
       <c r="M58" s="1">
         <v>0</v>
@@ -14017,7 +14020,7 @@
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="2">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1">
         <v>11.2352</v>
@@ -14047,10 +14050,10 @@
         <v>619059.6788</v>
       </c>
       <c r="K59" s="1">
-        <v>744943.7154</v>
+        <v>745008.5688</v>
       </c>
       <c r="L59" s="1">
-        <v>13.4928</v>
+        <v>13.4939</v>
       </c>
       <c r="M59" s="1">
         <v>0.3</v>
@@ -14070,7 +14073,7 @@
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="2">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="B60" s="1">
         <v>10.8241</v>
@@ -14100,10 +14103,10 @@
         <v>620909.2</v>
       </c>
       <c r="K60" s="1">
-        <v>754943.7154</v>
+        <v>755008.5688</v>
       </c>
       <c r="L60" s="1">
-        <v>13.4574</v>
+        <v>13.4585</v>
       </c>
       <c r="M60" s="1">
         <v>0</v>
@@ -14123,7 +14126,7 @@
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="2">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="B61" s="1">
         <v>11.2543</v>
@@ -14153,10 +14156,10 @@
         <v>655884.4816000001</v>
       </c>
       <c r="K61" s="1">
-        <v>779850.5722000001</v>
+        <v>779915.4256</v>
       </c>
       <c r="L61" s="1">
-        <v>13.3547</v>
+        <v>13.3558</v>
       </c>
       <c r="M61" s="1">
         <v>0</v>
@@ -14176,7 +14179,7 @@
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="2">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1">
         <v>10.5675</v>
@@ -14206,10 +14209,10 @@
         <v>625212.5493</v>
       </c>
       <c r="K62" s="1">
-        <v>789850.5722000001</v>
+        <v>789915.4256</v>
       </c>
       <c r="L62" s="1">
-        <v>13.3236</v>
+        <v>13.3247</v>
       </c>
       <c r="M62" s="1">
         <v>0.3</v>
@@ -14314,7 +14317,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-29</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>13.8109</v>
@@ -14361,7 +14364,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-28</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>13.9322</v>
@@ -14414,7 +14417,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-27</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>12.5846</v>
@@ -14467,7 +14470,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-26</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>12.2867</v>
@@ -14520,7 +14523,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-25</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>13.0645</v>
@@ -14573,7 +14576,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-24</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>13.8083</v>
@@ -14626,7 +14629,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-23</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>13.5636</v>
@@ -14679,7 +14682,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-22</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>13.1788</v>
@@ -14732,7 +14735,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-21</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>14.5668</v>
@@ -14785,7 +14788,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-20</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>13.962</v>
@@ -14838,7 +14841,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-19</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>12.2659</v>
@@ -14891,7 +14894,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-18</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>12.4103</v>
@@ -14944,7 +14947,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-17</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>12.3976</v>
@@ -14997,7 +15000,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-16</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>12.9013</v>
@@ -15050,7 +15053,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>13.3527</v>
@@ -15103,7 +15106,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-14</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>13.8804</v>
@@ -15156,7 +15159,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-13</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>14.6268</v>
@@ -15209,7 +15212,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-12</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>15.3636</v>
@@ -15262,7 +15265,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>-11</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>13.8711</v>
@@ -15315,7 +15318,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>-10</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>14.1252</v>
@@ -15368,7 +15371,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>-9</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>14.1934</v>
@@ -15421,7 +15424,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>-8</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>14.1176</v>
@@ -15474,7 +15477,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>-7</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>15.3311</v>
@@ -15527,7 +15530,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>-6</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>15.3637</v>
@@ -15557,10 +15560,10 @@
         <v>293221.5243</v>
       </c>
       <c r="K25" s="1">
-        <v>239150.2107</v>
+        <v>239160.7398</v>
       </c>
       <c r="L25" s="1">
-        <v>13.4401</v>
+        <v>13.4407</v>
       </c>
       <c r="M25" s="1">
         <v>0</v>
@@ -15580,7 +15583,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>-5</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>14.6447</v>
@@ -15610,10 +15613,10 @@
         <v>289766.5826</v>
       </c>
       <c r="K26" s="1">
-        <v>252708.0689</v>
+        <v>252718.598</v>
       </c>
       <c r="L26" s="1">
-        <v>13.5323</v>
+        <v>13.5329</v>
       </c>
       <c r="M26" s="1">
         <v>1</v>
@@ -15633,7 +15636,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>-4</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>15.486</v>
@@ -15663,10 +15666,10 @@
         <v>333680.7387</v>
       </c>
       <c r="K27" s="1">
-        <v>279540.2225</v>
+        <v>279550.7516</v>
       </c>
       <c r="L27" s="1">
-        <v>13.6341</v>
+        <v>13.6346</v>
       </c>
       <c r="M27" s="1">
         <v>0</v>
@@ -15686,7 +15689,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>-3</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>16.1958</v>
@@ -15716,10 +15719,10 @@
         <v>358125.5757</v>
       </c>
       <c r="K28" s="1">
-        <v>277799.2142</v>
+        <v>277816.6997</v>
       </c>
       <c r="L28" s="1">
-        <v>13.6238</v>
+        <v>13.6246</v>
       </c>
       <c r="M28" s="1">
         <v>0</v>
@@ -15739,7 +15742,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>-2</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>16.4264</v>
@@ -15769,10 +15772,10 @@
         <v>372822.4244</v>
       </c>
       <c r="K29" s="1">
-        <v>278082.6041</v>
+        <v>278100.0896</v>
       </c>
       <c r="L29" s="1">
-        <v>13.626</v>
+        <v>13.6268</v>
       </c>
       <c r="M29" s="1">
         <v>0.75</v>
@@ -15792,7 +15795,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>-1</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>17.107</v>
@@ -15822,10 +15825,10 @@
         <v>410842.871</v>
       </c>
       <c r="K30" s="1">
-        <v>288373.7042</v>
+        <v>288391.1897</v>
       </c>
       <c r="L30" s="1">
-        <v>13.7102</v>
+        <v>13.711</v>
       </c>
       <c r="M30" s="1">
         <v>0</v>
@@ -15845,7 +15848,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>16.8894</v>
@@ -15875,10 +15878,10 @@
         <v>416259.5638</v>
       </c>
       <c r="K31" s="1">
-        <v>289263.5287</v>
+        <v>289281.0142</v>
       </c>
       <c r="L31" s="1">
-        <v>13.7187</v>
+        <v>13.7195</v>
       </c>
       <c r="M31" s="1">
         <v>1</v>
@@ -15898,7 +15901,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>16.4004</v>
@@ -15928,10 +15931,10 @@
         <v>434288.1803</v>
       </c>
       <c r="K32" s="1">
-        <v>309323.2139</v>
+        <v>309340.6994</v>
       </c>
       <c r="L32" s="1">
-        <v>13.8892</v>
+        <v>13.89</v>
       </c>
       <c r="M32" s="1">
         <v>0</v>
@@ -15951,7 +15954,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>15.3877</v>
@@ -15981,10 +15984,10 @@
         <v>420036.4583</v>
       </c>
       <c r="K33" s="1">
-        <v>335928.5083</v>
+        <v>335945.9939</v>
       </c>
       <c r="L33" s="1">
-        <v>14.0616</v>
+        <v>14.0624</v>
       </c>
       <c r="M33" s="1">
         <v>0</v>
@@ -16004,7 +16007,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>14.6367</v>
@@ -16034,10 +16037,10 @@
         <v>410017.8756</v>
       </c>
       <c r="K34" s="1">
-        <v>376099.6187</v>
+        <v>376117.1042</v>
       </c>
       <c r="L34" s="1">
-        <v>14.1951</v>
+        <v>14.1957</v>
       </c>
       <c r="M34" s="1">
         <v>0</v>
@@ -16057,7 +16060,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>13.0061</v>
@@ -16087,10 +16090,10 @@
         <v>373109.7171</v>
       </c>
       <c r="K35" s="1">
-        <v>409092.7053</v>
+        <v>409110.1908</v>
       </c>
       <c r="L35" s="1">
-        <v>14.2319</v>
+        <v>14.2325</v>
       </c>
       <c r="M35" s="1">
         <v>0.5</v>
@@ -16110,7 +16113,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>13.835</v>
@@ -16140,10 +16143,10 @@
         <v>420417.2682</v>
       </c>
       <c r="K36" s="1">
-        <v>419092.7053</v>
+        <v>419110.1908</v>
       </c>
       <c r="L36" s="1">
-        <v>14.2007</v>
+        <v>14.2013</v>
       </c>
       <c r="M36" s="1">
         <v>0</v>
@@ -16163,7 +16166,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>14.4216</v>
@@ -16193,10 +16196,10 @@
         <v>448573.6143</v>
       </c>
       <c r="K37" s="1">
-        <v>442027.8424</v>
+        <v>442045.3279</v>
       </c>
       <c r="L37" s="1">
-        <v>14.1828</v>
+        <v>14.1833</v>
       </c>
       <c r="M37" s="1">
         <v>0</v>
@@ -16216,7 +16219,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>13.2404</v>
@@ -16246,10 +16249,10 @@
         <v>420975.6446</v>
       </c>
       <c r="K38" s="1">
-        <v>452027.8424</v>
+        <v>452045.3279</v>
       </c>
       <c r="L38" s="1">
-        <v>14.1886</v>
+        <v>14.1891</v>
       </c>
       <c r="M38" s="1">
         <v>0.4</v>
@@ -16269,7 +16272,7 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="2">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>12.382</v>
@@ -16299,10 +16302,10 @@
         <v>414465.8133</v>
       </c>
       <c r="K39" s="1">
-        <v>462027.8424</v>
+        <v>462045.3279</v>
       </c>
       <c r="L39" s="1">
-        <v>14.1673</v>
+        <v>14.1678</v>
       </c>
       <c r="M39" s="1">
         <v>0</v>
@@ -16322,7 +16325,7 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="2">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>11.9583</v>
@@ -16352,10 +16355,10 @@
         <v>409859.8777</v>
       </c>
       <c r="K40" s="1">
-        <v>483496.919</v>
+        <v>483514.4046</v>
       </c>
       <c r="L40" s="1">
-        <v>14.0786</v>
+        <v>14.0791</v>
       </c>
       <c r="M40" s="1">
         <v>0</v>
@@ -16375,7 +16378,7 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="2">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>12.2036</v>
@@ -16405,10 +16408,10 @@
         <v>428431.3038</v>
       </c>
       <c r="K41" s="1">
-        <v>493496.919</v>
+        <v>493514.4046</v>
       </c>
       <c r="L41" s="1">
-        <v>14.0288</v>
+        <v>14.0293</v>
       </c>
       <c r="M41" s="1">
         <v>0.4</v>
@@ -16428,7 +16431,7 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="2">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>12.9136</v>
@@ -16458,10 +16461,10 @@
         <v>476561.2557</v>
       </c>
       <c r="K42" s="1">
-        <v>503496.919</v>
+        <v>503514.4046</v>
       </c>
       <c r="L42" s="1">
-        <v>13.9879</v>
+        <v>13.9884</v>
       </c>
       <c r="M42" s="1">
         <v>0</v>
@@ -16481,7 +16484,7 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="2">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1">
         <v>13.4338</v>
@@ -16511,10 +16514,10 @@
         <v>506064.9648</v>
       </c>
       <c r="K43" s="1">
-        <v>526160.745</v>
+        <v>526178.2304999999</v>
       </c>
       <c r="L43" s="1">
-        <v>13.9393</v>
+        <v>13.9397</v>
       </c>
       <c r="M43" s="1">
         <v>0</v>
@@ -16534,7 +16537,7 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="2">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1">
         <v>12.9657</v>
@@ -16564,10 +16567,10 @@
         <v>498046.547</v>
       </c>
       <c r="K44" s="1">
-        <v>536160.745</v>
+        <v>536178.2304999999</v>
       </c>
       <c r="L44" s="1">
-        <v>13.93</v>
+        <v>13.9305</v>
       </c>
       <c r="M44" s="1">
         <v>0.3</v>
@@ -16587,7 +16590,7 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="2">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1">
         <v>13.3568</v>
@@ -16617,10 +16620,10 @@
         <v>533721.6437</v>
       </c>
       <c r="K45" s="1">
-        <v>546160.745</v>
+        <v>546178.2304999999</v>
       </c>
       <c r="L45" s="1">
-        <v>13.9117</v>
+        <v>13.9121</v>
       </c>
       <c r="M45" s="1">
         <v>0</v>
@@ -16640,7 +16643,7 @@
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="2">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1">
         <v>13.2487</v>
@@ -16670,10 +16673,10 @@
         <v>539239.6526</v>
       </c>
       <c r="K46" s="1">
-        <v>566552.9124</v>
+        <v>566570.3979</v>
       </c>
       <c r="L46" s="1">
-        <v>13.8919</v>
+        <v>13.8924</v>
       </c>
       <c r="M46" s="1">
         <v>0</v>
@@ -16693,7 +16696,7 @@
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="2">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1">
         <v>13.3991</v>
@@ -16723,10 +16726,10 @@
         <v>555434.3097</v>
       </c>
       <c r="K47" s="1">
-        <v>576552.9124</v>
+        <v>576570.3979</v>
       </c>
       <c r="L47" s="1">
-        <v>13.8807</v>
+        <v>13.8812</v>
       </c>
       <c r="M47" s="1">
         <v>0.4</v>
@@ -16746,7 +16749,7 @@
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="2">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1">
         <v>13.5985</v>
@@ -16776,10 +16779,10 @@
         <v>588761.3345999999</v>
       </c>
       <c r="K48" s="1">
-        <v>586552.9124</v>
+        <v>586570.3979</v>
       </c>
       <c r="L48" s="1">
-        <v>13.8727</v>
+        <v>13.8731</v>
       </c>
       <c r="M48" s="1">
         <v>0</v>
@@ -16799,7 +16802,7 @@
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="2">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1">
         <v>13.6955</v>
@@ -16829,10 +16832,10 @@
         <v>602931.7846</v>
       </c>
       <c r="K49" s="1">
-        <v>611505.9386</v>
+        <v>611523.4240999999</v>
       </c>
       <c r="L49" s="1">
-        <v>13.8625</v>
+        <v>13.8629</v>
       </c>
       <c r="M49" s="1">
         <v>0</v>
@@ -16852,7 +16855,7 @@
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="2">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="B50" s="1">
         <v>13.3398</v>
@@ -16882,10 +16885,10 @@
         <v>596973.2813</v>
       </c>
       <c r="K50" s="1">
-        <v>621505.9386</v>
+        <v>621523.4240999999</v>
       </c>
       <c r="L50" s="1">
-        <v>13.8602</v>
+        <v>13.8606</v>
       </c>
       <c r="M50" s="1">
         <v>0.3</v>
@@ -16905,7 +16908,7 @@
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="2">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1">
         <v>12.8469</v>
@@ -16935,10 +16938,10 @@
         <v>596615.0938</v>
       </c>
       <c r="K51" s="1">
-        <v>631505.9386</v>
+        <v>631523.4240999999</v>
       </c>
       <c r="L51" s="1">
-        <v>13.8521</v>
+        <v>13.8525</v>
       </c>
       <c r="M51" s="1">
         <v>0</v>
@@ -16958,7 +16961,7 @@
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="2">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1">
         <v>13.129</v>
@@ -16988,10 +16991,10 @@
         <v>619843.6164000001</v>
       </c>
       <c r="K52" s="1">
-        <v>653613.02</v>
+        <v>653630.5055</v>
       </c>
       <c r="L52" s="1">
-        <v>13.8165</v>
+        <v>13.8169</v>
       </c>
       <c r="M52" s="1">
         <v>0</v>
@@ -17011,7 +17014,7 @@
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="2">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="B53" s="1">
         <v>12.716</v>
@@ -17041,10 +17044,10 @@
         <v>609995.3428</v>
       </c>
       <c r="K53" s="1">
-        <v>663613.02</v>
+        <v>663630.5055</v>
       </c>
       <c r="L53" s="1">
-        <v>13.8061</v>
+        <v>13.8064</v>
       </c>
       <c r="M53" s="1">
         <v>0.3</v>
@@ -17064,7 +17067,7 @@
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="2">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1">
         <v>12.4613</v>
@@ -17094,10 +17097,10 @@
         <v>620515.343</v>
       </c>
       <c r="K54" s="1">
-        <v>673613.02</v>
+        <v>673630.5055</v>
       </c>
       <c r="L54" s="1">
-        <v>13.789</v>
+        <v>13.7893</v>
       </c>
       <c r="M54" s="1">
         <v>0</v>
@@ -17117,7 +17120,7 @@
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="2">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1">
         <v>12.6545</v>
@@ -17147,10 +17150,10 @@
         <v>640196.8933999999</v>
       </c>
       <c r="K55" s="1">
-        <v>696591.0307</v>
+        <v>696608.5162</v>
       </c>
       <c r="L55" s="1">
-        <v>13.7417</v>
+        <v>13.742</v>
       </c>
       <c r="M55" s="1">
         <v>0</v>
@@ -17170,7 +17173,7 @@
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="2">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="B56" s="1">
         <v>12.2345</v>
@@ -17200,10 +17203,10 @@
         <v>628576.3039000001</v>
       </c>
       <c r="K56" s="1">
-        <v>706591.0307</v>
+        <v>706608.5162</v>
       </c>
       <c r="L56" s="1">
-        <v>13.7254</v>
+        <v>13.7258</v>
       </c>
       <c r="M56" s="1">
         <v>0.3</v>
@@ -17223,7 +17226,7 @@
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="2">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1">
         <v>12.1636</v>
@@ -17253,10 +17256,10 @@
         <v>648738.7152</v>
       </c>
       <c r="K57" s="1">
-        <v>716591.0307</v>
+        <v>716608.5162</v>
       </c>
       <c r="L57" s="1">
-        <v>13.7026</v>
+        <v>13.7029</v>
       </c>
       <c r="M57" s="1">
         <v>0</v>
@@ -17276,7 +17279,7 @@
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="2">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1">
         <v>11.8145</v>
@@ -17306,10 +17309,10 @@
         <v>639740.0445</v>
       </c>
       <c r="K58" s="1">
-        <v>740490.7524</v>
+        <v>740508.2378999999</v>
       </c>
       <c r="L58" s="1">
-        <v>13.6478</v>
+        <v>13.6481</v>
       </c>
       <c r="M58" s="1">
         <v>0</v>
@@ -17329,7 +17332,7 @@
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="2">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1">
         <v>11.2352</v>
@@ -17359,10 +17362,10 @@
         <v>617840.2148</v>
       </c>
       <c r="K59" s="1">
-        <v>750490.7524</v>
+        <v>750508.2378999999</v>
       </c>
       <c r="L59" s="1">
-        <v>13.6201</v>
+        <v>13.6204</v>
       </c>
       <c r="M59" s="1">
         <v>0.3</v>
@@ -17382,7 +17385,7 @@
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="2">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="B60" s="1">
         <v>10.8241</v>
@@ -17412,10 +17415,10 @@
         <v>619704.9947</v>
       </c>
       <c r="K60" s="1">
-        <v>760490.7524</v>
+        <v>760508.2378999999</v>
       </c>
       <c r="L60" s="1">
-        <v>13.5826</v>
+        <v>13.5829</v>
       </c>
       <c r="M60" s="1">
         <v>0</v>
@@ -17435,7 +17438,7 @@
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="2">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="B61" s="1">
         <v>11.2543</v>
@@ -17465,10 +17468,10 @@
         <v>654632.5307999999</v>
       </c>
       <c r="K61" s="1">
-        <v>785368.2447</v>
+        <v>785385.7302</v>
       </c>
       <c r="L61" s="1">
-        <v>13.4749</v>
+        <v>13.4752</v>
       </c>
       <c r="M61" s="1">
         <v>0</v>
@@ -17488,7 +17491,7 @@
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="2">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1">
         <v>10.5675</v>
@@ -17518,10 +17521,10 @@
         <v>624036.9966</v>
       </c>
       <c r="K62" s="1">
-        <v>795368.2447</v>
+        <v>795385.7302</v>
       </c>
       <c r="L62" s="1">
-        <v>13.4419</v>
+        <v>13.4422</v>
       </c>
       <c r="M62" s="1">
         <v>0.3</v>
@@ -17546,13 +17549,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" customWidth="1"/>
     <col min="4" max="4" width="12.7109375" customWidth="1"/>
@@ -17597,16 +17600,16 @@
         <v>13.2699</v>
       </c>
       <c r="D3" s="1">
-        <v>13.0521</v>
+        <v>13.0574</v>
       </c>
       <c r="E3" s="1">
-        <v>13.131</v>
+        <v>13.1345</v>
       </c>
       <c r="F3" s="1">
-        <v>13.3236</v>
+        <v>13.3247</v>
       </c>
       <c r="G3" s="1">
-        <v>13.4419</v>
+        <v>13.4422</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
@@ -17716,6 +17719,26 @@
       </c>
       <c r="G8" s="1">
         <v>211361.7969</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.7948</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.903</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.803</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.7915</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0.7846</v>
       </c>
     </row>
   </sheetData>
